--- a/game/Decide/Decide/Asset/Data/TextData/Message.xlsx
+++ b/game/Decide/Decide/Asset/Data/TextData/Message.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1"/>
@@ -166,6 +166,10 @@
   </si>
   <si>
     <t>いらっしゃい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -554,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,9 +570,10 @@
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -581,8 +586,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -595,8 +603,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -609,8 +620,11 @@
       <c r="D3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -623,8 +637,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -637,8 +654,11 @@
       <c r="D5">
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -651,8 +671,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -665,8 +688,11 @@
       <c r="D7">
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -679,8 +705,11 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -693,8 +722,11 @@
       <c r="D9">
         <v>-1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -707,8 +739,11 @@
       <c r="D10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -721,8 +756,11 @@
       <c r="D11">
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -735,8 +773,11 @@
       <c r="D12">
         <v>-1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -749,8 +790,11 @@
       <c r="D13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -763,20 +807,59 @@
       <c r="D14">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
